--- a/Desempeño grupal grupo no 1 2do coordinador.xlsx
+++ b/Desempeño grupal grupo no 1 2do coordinador.xlsx
@@ -2176,12 +2176,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="84516864"/>
-        <c:axId val="84518400"/>
+        <c:axId val="83729792"/>
+        <c:axId val="83739776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84516864"/>
+        <c:axId val="83729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2201,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84518400"/>
+        <c:crossAx val="83739776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +2209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84518400"/>
+        <c:axId val="83739776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2230,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84516864"/>
+        <c:crossAx val="83729792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4120,12 +4120,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="84865792"/>
-        <c:axId val="84867328"/>
+        <c:axId val="83833216"/>
+        <c:axId val="83834752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84865792"/>
+        <c:axId val="83833216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4145,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84867328"/>
+        <c:crossAx val="83834752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4153,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84867328"/>
+        <c:axId val="83834752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4174,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84865792"/>
+        <c:crossAx val="83833216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5879,12 +5879,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86078976"/>
-        <c:axId val="86080512"/>
+        <c:axId val="84518016"/>
+        <c:axId val="84519552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86078976"/>
+        <c:axId val="84518016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5904,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86080512"/>
+        <c:crossAx val="84519552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5912,7 +5912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86080512"/>
+        <c:axId val="84519552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5933,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86078976"/>
+        <c:crossAx val="84518016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7823,12 +7823,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86542592"/>
-        <c:axId val="86564864"/>
+        <c:axId val="84998016"/>
+        <c:axId val="84999552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86542592"/>
+        <c:axId val="84998016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7848,7 +7848,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86564864"/>
+        <c:crossAx val="84999552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7856,7 +7856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86564864"/>
+        <c:axId val="84999552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7877,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86542592"/>
+        <c:crossAx val="84998016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9318,11 +9318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86145280"/>
-        <c:axId val="86151168"/>
+        <c:axId val="79738752"/>
+        <c:axId val="79740288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86145280"/>
+        <c:axId val="79738752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9342,7 +9342,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86151168"/>
+        <c:crossAx val="79740288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9350,7 +9350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86151168"/>
+        <c:axId val="79740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9371,7 +9371,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86145280"/>
+        <c:crossAx val="79738752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10566,12 +10566,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="78476800"/>
-        <c:axId val="78478336"/>
+        <c:axId val="81833344"/>
+        <c:axId val="81925248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78476800"/>
+        <c:axId val="81833344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10591,7 +10591,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78478336"/>
+        <c:crossAx val="81925248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10599,7 +10599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78478336"/>
+        <c:axId val="81925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,7 +10620,7 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78476800"/>
+        <c:crossAx val="81833344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12454,8 +12454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12657,15 +12657,9 @@
       <c r="A4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6">
-        <v>100</v>
-      </c>
-      <c r="C4" s="6">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6">
-        <v>100</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6">
         <v>100</v>
       </c>
@@ -12673,15 +12667,9 @@
         <f>AVERAGE(B4:E4)</f>
         <v>100</v>
       </c>
-      <c r="G4" s="7">
-        <v>100</v>
-      </c>
-      <c r="H4" s="7">
-        <v>100</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7">
         <v>100</v>
       </c>
@@ -12689,15 +12677,9 @@
         <f>AVERAGE(G4:J4)</f>
         <v>100</v>
       </c>
-      <c r="L4" s="8">
-        <v>100</v>
-      </c>
-      <c r="M4" s="8">
-        <v>100</v>
-      </c>
-      <c r="N4" s="8">
-        <v>100</v>
-      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="8">
         <v>100</v>
       </c>
@@ -12705,15 +12687,9 @@
         <f>AVERAGE(L4:O4)</f>
         <v>100</v>
       </c>
-      <c r="Q4" s="37">
-        <v>100</v>
-      </c>
-      <c r="R4" s="37">
-        <v>100</v>
-      </c>
-      <c r="S4" s="37">
-        <v>100</v>
-      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
       <c r="T4" s="37">
         <v>100</v>
       </c>
@@ -12721,15 +12697,9 @@
         <f>AVERAGE(Q4:T4)</f>
         <v>100</v>
       </c>
-      <c r="V4" s="9">
-        <v>100</v>
-      </c>
-      <c r="W4" s="9">
-        <v>100</v>
-      </c>
-      <c r="X4" s="9">
-        <v>100</v>
-      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
       <c r="Y4" s="9">
         <v>100</v>
       </c>
@@ -12766,15 +12736,9 @@
       <c r="A5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
-        <v>100</v>
-      </c>
-      <c r="C5" s="6">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <v>100</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6">
         <v>100</v>
       </c>
@@ -12782,15 +12746,9 @@
         <f>AVERAGE(B5:E5)</f>
         <v>100</v>
       </c>
-      <c r="G5" s="7">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="7">
         <v>100</v>
       </c>
@@ -12798,15 +12756,9 @@
         <f>AVERAGE(G5:J5)</f>
         <v>100</v>
       </c>
-      <c r="L5" s="8">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2">
-        <v>100</v>
-      </c>
-      <c r="N5" s="8">
-        <v>100</v>
-      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8">
         <v>100</v>
       </c>
@@ -12814,15 +12766,9 @@
         <f>AVERAGE(L5:O5)</f>
         <v>100</v>
       </c>
-      <c r="Q5" s="37">
-        <v>100</v>
-      </c>
-      <c r="R5" s="37">
-        <v>100</v>
-      </c>
-      <c r="S5" s="37">
-        <v>100</v>
-      </c>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="37">
         <v>100</v>
       </c>
@@ -12830,15 +12776,9 @@
         <f>AVERAGE(Q5:T5)</f>
         <v>100</v>
       </c>
-      <c r="V5" s="9">
-        <v>100</v>
-      </c>
-      <c r="W5" s="9">
-        <v>100</v>
-      </c>
-      <c r="X5" s="9">
-        <v>100</v>
-      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
       <c r="Y5" s="9">
         <v>100</v>
       </c>
@@ -12875,15 +12815,9 @@
       <c r="A6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6">
-        <v>100</v>
-      </c>
-      <c r="D6" s="6">
-        <v>100</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>100</v>
       </c>
@@ -12891,15 +12825,9 @@
         <f>AVERAGE(B6:E6)</f>
         <v>100</v>
       </c>
-      <c r="G6" s="7">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7">
         <v>100</v>
       </c>
@@ -12907,15 +12835,9 @@
         <f>AVERAGE(G6:J6)</f>
         <v>100</v>
       </c>
-      <c r="L6" s="8">
-        <v>100</v>
-      </c>
-      <c r="M6" s="2">
-        <v>100</v>
-      </c>
-      <c r="N6" s="8">
-        <v>100</v>
-      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="8">
         <v>100</v>
       </c>
@@ -12923,15 +12845,9 @@
         <f>AVERAGE(L6:O6)</f>
         <v>100</v>
       </c>
-      <c r="Q6" s="37">
-        <v>100</v>
-      </c>
-      <c r="R6" s="37">
-        <v>100</v>
-      </c>
-      <c r="S6" s="37">
-        <v>100</v>
-      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
       <c r="T6" s="37">
         <v>100</v>
       </c>
@@ -12939,15 +12855,9 @@
         <f>AVERAGE(Q6:T6)</f>
         <v>100</v>
       </c>
-      <c r="V6" s="9">
-        <v>100</v>
-      </c>
-      <c r="W6" s="9">
-        <v>100</v>
-      </c>
-      <c r="X6" s="9">
-        <v>100</v>
-      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
       <c r="Y6" s="9">
         <v>100</v>
       </c>
@@ -12984,15 +12894,9 @@
       <c r="A7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6">
-        <v>100</v>
-      </c>
-      <c r="C7" s="6">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>100</v>
       </c>
@@ -13000,15 +12904,9 @@
         <f>AVERAGE(B7:E7)</f>
         <v>100</v>
       </c>
-      <c r="G7" s="7">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7">
         <v>100</v>
       </c>
@@ -13016,15 +12914,9 @@
         <f>AVERAGE(G7:J7)</f>
         <v>100</v>
       </c>
-      <c r="L7" s="8">
-        <v>100</v>
-      </c>
-      <c r="M7" s="2">
-        <v>100</v>
-      </c>
-      <c r="N7" s="8">
-        <v>100</v>
-      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8">
         <v>100</v>
       </c>
@@ -13032,15 +12924,9 @@
         <f>AVERAGE(L7:O7)</f>
         <v>100</v>
       </c>
-      <c r="Q7" s="37">
-        <v>100</v>
-      </c>
-      <c r="R7" s="37">
-        <v>100</v>
-      </c>
-      <c r="S7" s="37">
-        <v>100</v>
-      </c>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
       <c r="T7" s="37">
         <v>100</v>
       </c>
@@ -13048,15 +12934,9 @@
         <f>AVERAGE(Q7:T7)</f>
         <v>100</v>
       </c>
-      <c r="V7" s="9">
-        <v>100</v>
-      </c>
-      <c r="W7" s="9">
-        <v>100</v>
-      </c>
-      <c r="X7" s="9">
-        <v>100</v>
-      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="9">
         <v>100</v>
       </c>
@@ -13093,15 +12973,9 @@
       <c r="A8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6">
-        <v>100</v>
-      </c>
-      <c r="C8" s="6">
-        <v>100</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>100</v>
       </c>
@@ -13109,15 +12983,9 @@
         <f>AVERAGE(B8:E8)</f>
         <v>100</v>
       </c>
-      <c r="G8" s="7">
-        <v>100</v>
-      </c>
-      <c r="H8" s="11">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7">
-        <v>100</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="7">
         <v>100</v>
       </c>
@@ -13125,15 +12993,9 @@
         <f>AVERAGE(G8:J8)</f>
         <v>100</v>
       </c>
-      <c r="L8" s="8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="12">
-        <v>100</v>
-      </c>
-      <c r="N8" s="8">
-        <v>100</v>
-      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="8">
         <v>100</v>
       </c>
@@ -13141,15 +13003,9 @@
         <f>AVERAGE(L8:O8)</f>
         <v>100</v>
       </c>
-      <c r="Q8" s="37">
-        <v>100</v>
-      </c>
-      <c r="R8" s="37">
-        <v>100</v>
-      </c>
-      <c r="S8" s="37">
-        <v>100</v>
-      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="37">
         <v>100</v>
       </c>
@@ -13157,15 +13013,9 @@
         <f>AVERAGE(Q8:T8)</f>
         <v>100</v>
       </c>
-      <c r="V8" s="9">
-        <v>100</v>
-      </c>
-      <c r="W8" s="9">
-        <v>100</v>
-      </c>
-      <c r="X8" s="9">
-        <v>100</v>
-      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
       <c r="Y8" s="9">
         <v>100</v>
       </c>
@@ -17625,11 +17475,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="B2:G3"/>
@@ -17642,6 +17487,11 @@
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
